--- a/biology/Zoologie/Crinozoa/Crinozoa.xlsx
+++ b/biology/Zoologie/Crinozoa/Crinozoa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crinozoa sont un sous-embranchement d'échinodermes (oursins et des étoiles de mer).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces organismes ont un mode de vie benthique, ils sont souvent fixés mais certains peuvent se déplacer sur le fond. Ils sont suspensivores et collectent des particules alimentaires grâce à leurs longs bras munis de cils. La seule classe vivante à l'heure actuelle est celle des crinoïdes.
 </t>
@@ -542,14 +556,16 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sous-embranchement était anciennement appelé Pelmatozoa, et sa validité fait encore débat. Il comprend les classes des :
-Crinoidea Miller, 1821 (Crinoïdes)[1]
+Crinoidea Miller, 1821 (Crinoïdes)
 †Blastoidea Say, 1825 (Blastoïdes, classe fossile)
 †Cystoidea von Buch, 1846 (Cystoïdes, classe fossile)
 †Eocrinoidea von Buch, 1846 (Éocrinoïdes, classe fossile)
-Les Blastoidea et Cystoidea sont parfois rangés dans un sous-embranchement à part, les « Blastozoa » (qui pourrait comprendre aussi les Eocrinoidea) : tous sont fossiles[2].
+Les Blastoidea et Cystoidea sont parfois rangés dans un sous-embranchement à part, les « Blastozoa » (qui pourrait comprendre aussi les Eocrinoidea) : tous sont fossiles.
 </t>
         </is>
       </c>
